--- a/Input_files/Actual_testcases/Kaman/ECTEST/KFP/ALL_PAGES/END_TO_END/TC21_Verify_ Find_a_Branch_Guestuser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/KFP/ALL_PAGES/END_TO_END/TC21_Verify_ Find_a_Branch_Guestuser.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\KFP\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29283DCE-5046-45B4-B249-33401A59C8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="7635" windowHeight="4695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC21_Verify_Find_a_Branch_Guser" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>TestCase</t>
   </si>
@@ -65,9 +71,6 @@
     <t>FindaBranchNearyou</t>
   </si>
   <si>
-    <t>Find a Branch Near You</t>
-  </si>
-  <si>
     <t>Search by Zip Code or State</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>DROPDOWN_SELECT</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>TextbranchforZipcode</t>
   </si>
   <si>
@@ -129,12 +129,18 @@
   </si>
   <si>
     <t>TC21_Verify_ Find_a_Branch_Guestuser</t>
+  </si>
+  <si>
+    <t>Find a Location Near You</t>
+  </si>
+  <si>
+    <t>Idaho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,13 +223,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +314,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +593,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -610,22 +653,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
@@ -635,7 +678,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
@@ -644,16 +687,16 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
@@ -672,7 +715,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -684,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,19 +742,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -723,19 +766,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
@@ -747,71 +790,71 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="8"/>
@@ -823,52 +866,28 @@
         <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>34</v>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -878,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,28 +939,28 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
-        <v>20152</v>
+        <v>83815</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="b">
         <v>1</v>
@@ -949,7 +968,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="b">
         <v>1</v>
@@ -957,7 +976,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="b">
         <v>1</v>
@@ -965,7 +984,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="b">
         <v>1</v>
@@ -973,15 +992,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="b">
         <v>1</v>
@@ -989,7 +1008,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8" t="b">
         <v>1</v>
@@ -997,7 +1016,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8" t="b">
         <v>1</v>
